--- a/mbs-perturbation/mega/elm/ELM_rbf_linf_results.xlsx
+++ b/mbs-perturbation/mega/elm/ELM_rbf_linf_results.xlsx
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8205128205128205</v>
+        <v>0.7981220657276995</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5208333333333334</v>
+        <v>0.457045143638851</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8162393162393162</v>
+        <v>0.7981220657276995</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5141848289297454</v>
+        <v>0.4441176470588235</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7381974248927039</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4582539077392299</v>
+        <v>0.5165007857517026</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8025751072961373</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5374912810974192</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="6">
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8025751072961373</v>
+        <v>0.8066037735849056</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4769820971867008</v>
+        <v>0.4356725146198831</v>
       </c>
     </row>
     <row r="7">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7960199552474231</v>
+        <v>0.7956639206307023</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5015490896572857</v>
+        <v>0.4623338848805186</v>
       </c>
     </row>
   </sheetData>
